--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>1.06017121156</v>
+        <v>1.444637526946667</v>
       </c>
       <c r="R2">
-        <v>9.541540904040001</v>
+        <v>13.00173774252</v>
       </c>
       <c r="S2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="T2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
         <v>5.495351829057778</v>
@@ -635,10 +635,10 @@
         <v>49.45816646152</v>
       </c>
       <c r="S3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="T3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>1.692803345288889</v>
+        <v>2.086479956195556</v>
       </c>
       <c r="R4">
-        <v>15.2352301076</v>
+        <v>18.77831960576</v>
       </c>
       <c r="S4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="T4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N5">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q5">
-        <v>0.005094542222222223</v>
+        <v>0.02301300244444445</v>
       </c>
       <c r="R5">
-        <v>0.04585088</v>
+        <v>0.207117022</v>
       </c>
       <c r="S5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="T5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
     </row>
   </sheetData>
